--- a/data/trans_orig/P14C97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0FB4C13-1FEA-4D70-B140-5EE71B931FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E38186-92CD-46DB-816C-2344F928D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB1C289F-5D24-4337-B018-64751CFA4F25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E69CD09E-CDFF-4FA3-8CBF-6C3C0221E682}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>79,14%</t>
   </si>
   <si>
-    <t>19,49%</t>
+    <t>18,39%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>69,89%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,51%</t>
+    <t>81,61%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -152,82 +152,82 @@
     <t>52,29%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -236,79 +236,79 @@
     <t>68,94%</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>27,26%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>19,72%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -317,79 +317,79 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>22,58%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -398,157 +398,163 @@
     <t>63,61%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>76,96%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>73,47%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>3,0%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>72,72%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -963,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E277C252-F55D-4A32-88B6-C2E054543A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFA8E8B-DD14-413E-8E4D-EA3FE27F0ECE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,7 +2025,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2028,13 +2034,13 @@
         <v>3278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2043,13 +2049,13 @@
         <v>6882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2123,13 @@
         <v>86866</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>190</v>
@@ -2132,13 +2138,13 @@
         <v>211691</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>275</v>
@@ -2147,13 +2153,13 @@
         <v>298557</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2174,13 @@
         <v>36930</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -2183,13 +2189,13 @@
         <v>72472</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -2198,13 +2204,13 @@
         <v>109402</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2225,13 @@
         <v>10645</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -2234,13 +2240,13 @@
         <v>18356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2249,13 +2255,13 @@
         <v>29001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,7 +2317,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E38186-92CD-46DB-816C-2344F928D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41166017-B2CA-400C-8834-5C529A3C0987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E69CD09E-CDFF-4FA3-8CBF-6C3C0221E682}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C9E46A8-17E3-4D0D-B1DF-E93232FC3404}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2016 (Tasa respuesta: 6,15%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -83,19 +83,19 @@
     <t>69,89%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>30,11%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -146,25 +146,25 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>66,17%</t>
@@ -173,388 +173,385 @@
     <t>54,73%</t>
   </si>
   <si>
-    <t>77,69%</t>
+    <t>76,84%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>68,94%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>29,87%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -969,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFA8E8B-DD14-413E-8E4D-EA3FE27F0ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FB7990-A54A-456F-8AEE-F317609749DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,10 +2204,10 @@
         <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2222,13 @@
         <v>10645</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -2240,13 +2237,13 @@
         <v>18356</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2255,13 +2252,13 @@
         <v>29001</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2314,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
